--- a/european_co2_by_sector_w_indirect.xlsx
+++ b/european_co2_by_sector_w_indirect.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://afonline-my.sharepoint.com/personal/atte_koskivaara_afry_com/Documents/Documents/Other/co2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mre275\OneDrive - AF\Documents\Other\co2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5268A235-4BF4-4619-A40C-615E114FC817}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27193C2E-A8AD-4081-9550-A16050E1CE6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10788" xr2:uid="{0A2CCA7A-000C-46FB-B56C-7AAE59A30818}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,6 +639,7 @@
     <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1620,162 +1621,162 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3391298.7059999998</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2543474.0295000002</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>69</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
         <v>272964.37</v>
       </c>
     </row>
@@ -1966,18 +1967,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1999,14 +2000,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D438DB-D769-4F79-A67C-52EA5F1E9399}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B2EC7A6-2685-4247-A699-10BEE91C0114}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2020,4 +2013,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D438DB-D769-4F79-A67C-52EA5F1E9399}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/european_co2_by_sector_w_indirect.xlsx
+++ b/european_co2_by_sector_w_indirect.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mre275\OneDrive - AF\Documents\Other\co2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://afonline-my.sharepoint.com/personal/atte_koskivaara_afry_com/Documents/Documents/Other/co2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27193C2E-A8AD-4081-9550-A16050E1CE6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="102_{D905854A-5CA9-411D-9F53-129CB22FC361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{22241C68-6F7F-4A33-B22C-F5BDA2197E56}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10788" xr2:uid="{0A2CCA7A-000C-46FB-B56C-7AAE59A30818}"/>
   </bookViews>
@@ -251,7 +251,7 @@
     <t>2030 - target (-55%)</t>
   </si>
   <si>
-    <t>Indirect co2 emissions</t>
+    <t>Indirect GHG emissions</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,9 +637,10 @@
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
     <col min="11" max="12" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1789,6 +1790,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D43E3CCED02EB49A2B938930B23E0D4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7f97b1aa684bd3d681480be0aac81a24">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="70ba084a-0082-4287-b2e5-8aa8ab3b3f0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a37a611540b95fd34561699080d55835" ns3:_="">
     <xsd:import namespace="70ba084a-0082-4287-b2e5-8aa8ab3b3f0d"/>
@@ -1966,22 +1982,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D438DB-D769-4F79-A67C-52EA5F1E9399}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B2EC7A6-2685-4247-A699-10BEE91C0114}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="70ba084a-0082-4287-b2e5-8aa8ab3b3f0d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE240C43-53F8-41EC-A7E2-35EABEDAB00B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1997,28 +2022,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B2EC7A6-2685-4247-A699-10BEE91C0114}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="70ba084a-0082-4287-b2e5-8aa8ab3b3f0d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D438DB-D769-4F79-A67C-52EA5F1E9399}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>